--- a/test.xlsx
+++ b/test.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kropla\Documents\GitHub\kalkulator_finansow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72A4D91-214A-46E0-8AF7-2954195CB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C7604-0D44-4220-906C-C69DA7148F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Tytuł</t>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Kwota</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Ilość</t>
   </si>
 </sst>
 </file>
@@ -63,8 +67,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -345,15 +355,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45105</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kropla\Documents\GitHub\kalkulator_finansow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C7604-0D44-4220-906C-C69DA7148F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Kwota</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Ilość</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,27 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -354,48 +391,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.140625" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Kwota</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
+      <c r="B3" s="2" t="n">
+        <v>45105</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29.06.2023</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45105</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26.06.2023</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -396,13 +396,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="D1" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -440,34 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>29.06.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>26.06.2023</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="930" windowWidth="25140" windowHeight="16350" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,12 +45,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,15 +396,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="1" min="4" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="3" max="5"/>
+    <col width="9.140625" customWidth="1" style="1" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,6 +434,16 @@
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Data</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Kategoria</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Opis</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,33 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kropla\Documents\GitHub\kalkulator_finansow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D139C-C5D4-4097-A343-87B0E97BA4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="930" windowWidth="25140" windowHeight="16350" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Kwota</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Kategoria</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
+  <si>
+    <t>02.02.2023</t>
+  </si>
+  <si>
+    <t>15.02.2023</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>fgdfgdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>sfsdfsd</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
+  </si>
+  <si>
+    <t>qeqee</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,84 +122,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -388,63 +409,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="1" min="3" max="5"/>
-    <col width="9.140625" customWidth="1" style="1" min="6" max="16384"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Kwota</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Kategoria</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Opis</t>
-        </is>
+      <c r="B1" s="1">
+        <v>13850</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4550</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,30 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kropla\Documents\GitHub\kalkulator_finansow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymon\Documents\GitHub\kalkulator_finansow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D139C-C5D4-4097-A343-87B0E97BA4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F78EFF-5684-4D11-9598-9DCA82DE6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,34 +43,34 @@
     <t>01.01.2023</t>
   </si>
   <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>fgdfgdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+  <si>
     <t>02.02.2023</t>
   </si>
   <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>sfsdfsd</t>
+  </si>
+  <si>
+    <t>wat</t>
+  </si>
+  <si>
+    <t>qweqwe</t>
+  </si>
+  <si>
     <t>15.02.2023</t>
-  </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>kat</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>fgdfgdfg</t>
-  </si>
-  <si>
-    <t>dfgdfgdfg</t>
-  </si>
-  <si>
-    <t>sdfsdfs</t>
-  </si>
-  <si>
-    <t>sfsdfsd</t>
-  </si>
-  <si>
-    <t>qweqwe</t>
   </si>
   <si>
     <t>qeqee</t>
@@ -413,25 +400,25 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>13850</v>
+        <v>15084</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -440,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -454,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -462,13 +449,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -476,13 +463,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -490,77 +477,77 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1200</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2300</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2300</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4550</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,97 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymon\Documents\GitHub\kalkulator_finansow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F78EFF-5684-4D11-9598-9DCA82DE6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Ilość</t>
-  </si>
-  <si>
-    <t>Kwota</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Kategoria</t>
-  </si>
-  <si>
-    <t>Opis</t>
-  </si>
-  <si>
-    <t>01.01.2023</t>
-  </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>fgdfgdfg</t>
-  </si>
-  <si>
-    <t>dfgdfgdfg</t>
-  </si>
-  <si>
-    <t>02.02.2023</t>
-  </si>
-  <si>
-    <t>kat</t>
-  </si>
-  <si>
-    <t>sdfsdfs</t>
-  </si>
-  <si>
-    <t>sfsdfsd</t>
-  </si>
-  <si>
-    <t>wat</t>
-  </si>
-  <si>
-    <t>qweqwe</t>
-  </si>
-  <si>
-    <t>15.02.2023</t>
-  </si>
-  <si>
-    <t>qeqee</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,27 +52,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,161 +397,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" style="1" min="3" max="7"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>15084</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Kwota</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Kategoria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ilość</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2022</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Opis1</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2022</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Opis2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>01.02.2022</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Opis3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2022</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>mandat</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Opis4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2022</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>mandat</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Opis5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2022</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Opis6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2022</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Opis7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>15.05.2022</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Opis8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Opis9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Opis10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Opis11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Opis12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Opis13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Opis14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Opis15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>01.01.2023</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>chemia</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Opis16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2023</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>mandat</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Opis17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2023</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>mandat</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Opis18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2023</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Opis19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2023</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Opis20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>4550</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2023</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Opis21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1200</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>4550</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.1.1900</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>opistest</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4.3.1999</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vat</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>opist</t>
+        </is>
       </c>
     </row>
   </sheetData>
